--- a/database/Export/Tabelas Finais/POF 2017 TBL_7/Tabela7.xlsx
+++ b/database/Export/Tabelas Finais/POF 2017 TBL_7/Tabela7.xlsx
@@ -414,89 +414,89 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Isotônico e Energético</t>
+          <t>Bebida Adoçada</t>
         </is>
       </c>
       <c r="B3">
-        <v>200.54</v>
+        <v>4454.82</v>
       </c>
       <c r="C3">
-        <v>226.74</v>
+        <v>9107.34</v>
       </c>
       <c r="D3">
-        <v>911.03</v>
+        <v>18330.01</v>
       </c>
       <c r="E3">
-        <v>740.62</v>
+        <v>11783.79</v>
       </c>
       <c r="F3">
-        <v>433.01</v>
+        <v>7869.51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bebida Adoçada</t>
+          <t>Bebida Adoçada a Base de Leite</t>
         </is>
       </c>
       <c r="B4">
-        <v>4454.82</v>
+        <v>8349.24</v>
       </c>
       <c r="C4">
-        <v>9107.34</v>
+        <v>21998.38</v>
       </c>
       <c r="D4">
-        <v>18330.01</v>
+        <v>27179.89</v>
       </c>
       <c r="E4">
-        <v>11783.79</v>
+        <v>17869.83</v>
       </c>
       <c r="F4">
-        <v>7869.51</v>
+        <v>10735.13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bebida Adoçada a Base de Leite</t>
+          <t>Café e Chá</t>
         </is>
       </c>
       <c r="B5">
-        <v>8349.24</v>
+        <v>20784.47</v>
       </c>
       <c r="C5">
-        <v>21998.38</v>
+        <v>48065.29</v>
       </c>
       <c r="D5">
-        <v>27179.89</v>
+        <v>37928.13</v>
       </c>
       <c r="E5">
-        <v>17869.83</v>
+        <v>33735.55</v>
       </c>
       <c r="F5">
-        <v>10735.13</v>
+        <v>21677.72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Café e Chá</t>
+          <t>Isotônico e Energético</t>
         </is>
       </c>
       <c r="B6">
-        <v>20784.47</v>
+        <v>200.54</v>
       </c>
       <c r="C6">
-        <v>48065.29</v>
+        <v>226.74</v>
       </c>
       <c r="D6">
-        <v>37928.13</v>
+        <v>911.03</v>
       </c>
       <c r="E6">
-        <v>33735.55</v>
+        <v>740.62</v>
       </c>
       <c r="F6">
-        <v>21677.72</v>
+        <v>433.01</v>
       </c>
     </row>
     <row r="7">

--- a/database/Export/Tabelas Finais/POF 2017 TBL_7/Tabela7.xlsx
+++ b/database/Export/Tabelas Finais/POF 2017 TBL_7/Tabela7.xlsx
@@ -396,19 +396,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>4631.01</v>
+        <v>4588.01</v>
       </c>
       <c r="C2">
-        <v>16937.91</v>
+        <v>80016812.73</v>
       </c>
       <c r="D2">
-        <v>5721.94</v>
+        <v>30005719.62</v>
       </c>
       <c r="E2">
         <v>3494.2</v>
       </c>
       <c r="F2">
-        <v>1846.36</v>
+        <v>10001846.35</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +418,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>4454.82</v>
+        <v>30004438.2</v>
       </c>
       <c r="C3">
-        <v>9107.34</v>
+        <v>190009097.78</v>
       </c>
       <c r="D3">
-        <v>18330.01</v>
+        <v>220018230.59</v>
       </c>
       <c r="E3">
-        <v>11783.79</v>
+        <v>70011726.28</v>
       </c>
       <c r="F3">
-        <v>7869.51</v>
+        <v>190007852.32</v>
       </c>
     </row>
     <row r="4">
@@ -440,19 +440,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>8349.24</v>
+        <v>90008322.86</v>
       </c>
       <c r="C4">
-        <v>21998.38</v>
+        <v>330021956.97</v>
       </c>
       <c r="D4">
-        <v>27179.89</v>
+        <v>290027033.45</v>
       </c>
       <c r="E4">
-        <v>17869.83</v>
+        <v>80017790.96000001</v>
       </c>
       <c r="F4">
-        <v>10735.13</v>
+        <v>170010708.14</v>
       </c>
     </row>
     <row r="5">
@@ -462,19 +462,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>20784.47</v>
+        <v>190020660.5</v>
       </c>
       <c r="C5">
-        <v>48065.29</v>
+        <v>530047878.84</v>
       </c>
       <c r="D5">
-        <v>37928.13</v>
+        <v>380037814.76</v>
       </c>
       <c r="E5">
-        <v>33735.55</v>
+        <v>150033641.48</v>
       </c>
       <c r="F5">
-        <v>21677.72</v>
+        <v>210021552.36</v>
       </c>
     </row>
     <row r="6">
@@ -506,19 +506,19 @@
         </is>
       </c>
       <c r="B7">
-        <v>33465.92</v>
+        <v>220033326.68</v>
       </c>
       <c r="C7">
-        <v>85544.84</v>
+        <v>350085321.51</v>
       </c>
       <c r="D7">
-        <v>68913.02</v>
+        <v>360068603.81</v>
       </c>
       <c r="E7">
-        <v>43895.59</v>
+        <v>380043763.11</v>
       </c>
       <c r="F7">
-        <v>36571.09</v>
+        <v>1020036446.81</v>
       </c>
     </row>
     <row r="8">
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="B8">
-        <v>12656.41</v>
+        <v>40012560.74</v>
       </c>
       <c r="C8">
-        <v>25237.07</v>
+        <v>130025170.47</v>
       </c>
       <c r="D8">
-        <v>30628.24</v>
+        <v>180030563.47</v>
       </c>
       <c r="E8">
-        <v>25063.04</v>
+        <v>120025026.83</v>
       </c>
       <c r="F8">
-        <v>16006.9</v>
+        <v>180015947.03</v>
       </c>
     </row>
     <row r="9">
@@ -572,19 +572,19 @@
         </is>
       </c>
       <c r="B10">
-        <v>29354.12</v>
+        <v>230028698.89</v>
       </c>
       <c r="C10">
-        <v>8150.8</v>
+        <v>50008144.65</v>
       </c>
       <c r="D10">
-        <v>4875.75</v>
+        <v>60004858.7</v>
       </c>
       <c r="E10">
-        <v>3095.81</v>
+        <v>3084.01</v>
       </c>
       <c r="F10">
-        <v>2456.54</v>
+        <v>10002456.53</v>
       </c>
     </row>
   </sheetData>

--- a/database/Export/Tabelas Finais/POF 2017 TBL_7/Tabela7.xlsx
+++ b/database/Export/Tabelas Finais/POF 2017 TBL_7/Tabela7.xlsx
@@ -1,21 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\POF\database\Export\Tabelas Finais\POF 2017 TBL_7\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF4307A-F286-4792-8A9F-58E88F1F716D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-21375" yWindow="-300" windowWidth="20010" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>CATEGORIA</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Água</t>
+  </si>
+  <si>
+    <t>Bebida Adoçada</t>
+  </si>
+  <si>
+    <t>Bebida Adoçada a Base de Leite</t>
+  </si>
+  <si>
+    <t>Café e Chá</t>
+  </si>
+  <si>
+    <t>Isotônico e Energético</t>
+  </si>
+  <si>
+    <t>Leite</t>
+  </si>
+  <si>
+    <t>Refrigerante</t>
+  </si>
+  <si>
+    <t>Refrigerante Dietético</t>
+  </si>
+  <si>
+    <t>Suco Natural</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,11 +130,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +216,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +268,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,241 +461,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CATEGORIA</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Água</t>
-        </is>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>4588.01</v>
+        <v>4667.2299999999996</v>
       </c>
       <c r="C2">
-        <v>80016812.73</v>
+        <v>16861.099999999999</v>
       </c>
       <c r="D2">
-        <v>30005719.62</v>
+        <v>5799.48</v>
       </c>
       <c r="E2">
-        <v>3494.2</v>
+        <v>3515.26</v>
       </c>
       <c r="F2">
-        <v>10001846.35</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Bebida Adoçada</t>
-        </is>
+        <v>1859.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>30004438.2</v>
+        <v>4367.2</v>
       </c>
       <c r="C3">
-        <v>190009097.78</v>
+        <v>9195.31</v>
       </c>
       <c r="D3">
-        <v>220018230.59</v>
+        <v>18372.39</v>
       </c>
       <c r="E3">
-        <v>70011726.28</v>
+        <v>11774.81</v>
       </c>
       <c r="F3">
-        <v>190007852.32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Bebida Adoçada a Base de Leite</t>
-        </is>
+        <v>7957.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>90008322.86</v>
+        <v>8411</v>
       </c>
       <c r="C4">
-        <v>330021956.97</v>
+        <v>21908.41</v>
       </c>
       <c r="D4">
-        <v>290027033.45</v>
+        <v>27083.08</v>
       </c>
       <c r="E4">
-        <v>80017790.96000001</v>
+        <v>17781.03</v>
       </c>
       <c r="F4">
-        <v>170010708.14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Café e Chá</t>
-        </is>
+        <v>10734.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>190020660.5</v>
+        <v>19852.84</v>
       </c>
       <c r="C5">
-        <v>530047878.84</v>
+        <v>46978.46</v>
       </c>
       <c r="D5">
-        <v>380037814.76</v>
+        <v>37972.870000000003</v>
       </c>
       <c r="E5">
-        <v>150033641.48</v>
+        <v>33892.33</v>
       </c>
       <c r="F5">
-        <v>210021552.36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Isotônico e Energético</t>
-        </is>
+        <v>21849.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>200.54</v>
+        <v>200.53</v>
       </c>
       <c r="C6">
-        <v>226.74</v>
+        <v>227.35</v>
       </c>
       <c r="D6">
-        <v>911.03</v>
+        <v>915.38</v>
       </c>
       <c r="E6">
-        <v>740.62</v>
+        <v>743.94</v>
       </c>
       <c r="F6">
-        <v>433.01</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Leite</t>
-        </is>
+        <v>437.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>220033326.68</v>
+        <v>32204.86</v>
       </c>
       <c r="C7">
-        <v>350085321.51</v>
+        <v>84635.520000000004</v>
       </c>
       <c r="D7">
-        <v>360068603.81</v>
+        <v>63303.35</v>
       </c>
       <c r="E7">
-        <v>380043763.11</v>
+        <v>41679.199999999997</v>
       </c>
       <c r="F7">
-        <v>1020036446.81</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Refrigerante</t>
-        </is>
+        <v>36209.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>40012560.74</v>
+        <v>12736.86</v>
       </c>
       <c r="C8">
-        <v>130025170.47</v>
+        <v>25282.36</v>
       </c>
       <c r="D8">
-        <v>180030563.47</v>
+        <v>30145.3</v>
       </c>
       <c r="E8">
-        <v>120025026.83</v>
+        <v>25141.38</v>
       </c>
       <c r="F8">
-        <v>180015947.03</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Refrigerante Dietético</t>
-        </is>
+        <v>16024.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>87.99</v>
+        <v>89.37</v>
       </c>
       <c r="C9">
-        <v>243.22</v>
+        <v>241.22</v>
       </c>
       <c r="D9">
-        <v>1210.75</v>
+        <v>1218.77</v>
       </c>
       <c r="E9">
-        <v>725.11</v>
+        <v>727.68</v>
       </c>
       <c r="F9">
-        <v>149.87</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Suco Natural</t>
-        </is>
+        <v>150.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>230028698.89</v>
+        <v>27837.09</v>
       </c>
       <c r="C10">
-        <v>50008144.65</v>
+        <v>8065.97</v>
       </c>
       <c r="D10">
-        <v>60004858.7</v>
+        <v>4969.9799999999996</v>
       </c>
       <c r="E10">
-        <v>3084.01</v>
+        <v>3093.69</v>
       </c>
       <c r="F10">
-        <v>10002456.53</v>
+        <v>2476.6</v>
       </c>
     </row>
   </sheetData>

--- a/database/Export/Tabelas Finais/POF 2017 TBL_7/Tabela7.xlsx
+++ b/database/Export/Tabelas Finais/POF 2017 TBL_7/Tabela7.xlsx
@@ -1,88 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\POF\database\Export\Tabelas Finais\POF 2017 TBL_7\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF4307A-F286-4792-8A9F-58E88F1F716D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21375" yWindow="-300" windowWidth="20010" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>CATEGORIA</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Água</t>
-  </si>
-  <si>
-    <t>Bebida Adoçada</t>
-  </si>
-  <si>
-    <t>Bebida Adoçada a Base de Leite</t>
-  </si>
-  <si>
-    <t>Café e Chá</t>
-  </si>
-  <si>
-    <t>Isotônico e Energético</t>
-  </si>
-  <si>
-    <t>Leite</t>
-  </si>
-  <si>
-    <t>Refrigerante</t>
-  </si>
-  <si>
-    <t>Refrigerante Dietético</t>
-  </si>
-  <si>
-    <t>Suco Natural</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,19 +63,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -184,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,44 +350,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CATEGORIA</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Água</t>
+        </is>
       </c>
       <c r="B2">
-        <v>4667.2299999999996</v>
+        <v>4667.23</v>
       </c>
       <c r="C2">
-        <v>16861.099999999999</v>
+        <v>16861.1</v>
       </c>
       <c r="D2">
         <v>5799.48</v>
@@ -510,9 +411,11 @@
         <v>1859.22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bebida Adoçada</t>
+        </is>
       </c>
       <c r="B3">
         <v>4367.2</v>
@@ -530,9 +433,11 @@
         <v>7957.58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bebida Adoçada a Base de Leite</t>
+        </is>
       </c>
       <c r="B4">
         <v>8411</v>
@@ -550,9 +455,11 @@
         <v>10734.92</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Café e Chá</t>
+        </is>
       </c>
       <c r="B5">
         <v>19852.84</v>
@@ -561,7 +468,7 @@
         <v>46978.46</v>
       </c>
       <c r="D5">
-        <v>37972.870000000003</v>
+        <v>37972.87</v>
       </c>
       <c r="E5">
         <v>33892.33</v>
@@ -570,9 +477,11 @@
         <v>21849.79</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Isotônico e Energético</t>
+        </is>
       </c>
       <c r="B6">
         <v>200.53</v>
@@ -584,35 +493,39 @@
         <v>915.38</v>
       </c>
       <c r="E6">
-        <v>743.94</v>
+        <v>743.9400000000001</v>
       </c>
       <c r="F6">
         <v>437.26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Leite</t>
+        </is>
       </c>
       <c r="B7">
         <v>32204.86</v>
       </c>
       <c r="C7">
-        <v>84635.520000000004</v>
+        <v>84635.52</v>
       </c>
       <c r="D7">
         <v>63303.35</v>
       </c>
       <c r="E7">
-        <v>41679.199999999997</v>
+        <v>41679.2</v>
       </c>
       <c r="F7">
         <v>36209.61</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Refrigerante</t>
+        </is>
       </c>
       <c r="B8">
         <v>12736.86</v>
@@ -630,12 +543,14 @@
         <v>16024.44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Refrigerante Dietético</t>
+        </is>
       </c>
       <c r="B9">
-        <v>89.37</v>
+        <v>89.37000000000001</v>
       </c>
       <c r="C9">
         <v>241.22</v>
@@ -650,9 +565,11 @@
         <v>150.13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Suco Natural</t>
+        </is>
       </c>
       <c r="B10">
         <v>27837.09</v>
@@ -661,7 +578,7 @@
         <v>8065.97</v>
       </c>
       <c r="D10">
-        <v>4969.9799999999996</v>
+        <v>4969.98</v>
       </c>
       <c r="E10">
         <v>3093.69</v>
